--- a/List of Swiss Digital Custodians.xlsx
+++ b/List of Swiss Digital Custodians.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <t>Logo</t>
   </si>
@@ -19,60 +19,51 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Banking license (FINMA)</t>
+  </si>
+  <si>
+    <t>Company Established</t>
+  </si>
+  <si>
+    <t>Custody Product Launched</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Business Head</t>
+  </si>
+  <si>
+    <t>Parent Company</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
     <t>Product name</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Banking license (FINMA)</t>
-  </si>
-  <si>
-    <t>Exchange license (SESTA)</t>
-  </si>
-  <si>
     <t>Technology Provider</t>
   </si>
   <si>
-    <t>Company Established</t>
-  </si>
-  <si>
-    <t>Parent Company</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
     <t>Audited (ISAE 3000, ISAE 3402, SOC 2</t>
   </si>
   <si>
-    <t>Approach</t>
-  </si>
-  <si>
     <t>Whitelabel solution available</t>
   </si>
   <si>
     <t>Crypto-Custody as a Service</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Business Head</t>
-  </si>
-  <si>
-    <t>Number of employees in this division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicly traded? </t>
-  </si>
-  <si>
     <t>Digital AUC</t>
   </si>
   <si>
@@ -112,6 +103,15 @@
     <t>Minimum Assets</t>
   </si>
   <si>
+    <t>Setup Fees</t>
+  </si>
+  <si>
+    <t>Storage Fee</t>
+  </si>
+  <si>
+    <t>Transaction Fee</t>
+  </si>
+  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>AirGap Vault, AirGap Wallet, AirGap Knox</t>
-  </si>
-  <si>
-    <t>Papers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Wallet </t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland
@@ -143,16 +134,19 @@
 Switzerland</t>
   </si>
   <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>AirGap Vault, AirGap Wallet, AirGap Knox</t>
+  </si>
+  <si>
     <t>Arab Bank (Switzerland) Ltd.</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>Taurus Group</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
   </si>
   <si>
     <t>Nüschelerstrasse 1
@@ -167,10 +161,16 @@
 Fax: +41 (22) 715 1311</t>
   </si>
   <si>
+    <t>Taurus Group</t>
+  </si>
+  <si>
     <t>BTC, ETH, Ripple (soon)</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>by esisuisse up to CHF 100,000</t>
   </si>
   <si>
     <t>Bitcoin Suisse AG</t>
@@ -180,29 +180,25 @@
 Bank license application submitted July-2019</t>
   </si>
   <si>
-    <t>submitted July-2019</t>
+    <t>Dr. Arthur Vayloyan</t>
+  </si>
+  <si>
+    <t>150+</t>
+  </si>
+  <si>
+    <t>Institutional-grade cold storage for a wide range of crypto assets.</t>
   </si>
   <si>
     <t>Swiss Crypto Vault</t>
   </si>
   <si>
-    <t>150+</t>
-  </si>
-  <si>
-    <t>Institutional-grade cold storage for a wide range of crypto assets.</t>
-  </si>
-  <si>
-    <t>Dr. Arthur Vayloyan</t>
-  </si>
-  <si>
     <t>Storage volume of more than USD 1 billion (June 2019).</t>
   </si>
   <si>
     <t xml:space="preserve">BTC, ETH, ERC20/223, BSV, XRP, BCH, LTC, BTG, TRON, EWT and XTZ </t>
   </si>
   <si>
-    <t>No set-up fee, No minimum volume required, 
-Storage fee: 0,4%-0,6% per annum (calculated on a daily basis)</t>
+    <t>Storage fee: 0,4%-0,6% per annum (calculated on a daily basis)</t>
   </si>
   <si>
     <t>Bank Julius Bär &amp; Co. AG</t>
@@ -212,12 +208,6 @@
   </si>
   <si>
     <t>BRD</t>
-  </si>
-  <si>
-    <t>Breadwallet</t>
-  </si>
-  <si>
-    <t>Non-Custodial Wallet</t>
   </si>
   <si>
     <t>Breadwinner AG
@@ -226,7 +216,10 @@
 Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Wallet </t>
+    <t>Breadwallet</t>
+  </si>
+  <si>
+    <t>Non-Custodial Mobile Wallet</t>
   </si>
   <si>
     <t>6billion</t>
@@ -235,29 +228,22 @@
     <t>Crypto Finance AG</t>
   </si>
   <si>
+    <t>Jan Brzezek</t>
+  </si>
+  <si>
+    <t>Stijn Vander Straeten</t>
+  </si>
+  <si>
     <t>ISAE 3000, SOC 2</t>
   </si>
   <si>
-    <t>Solution Service</t>
-  </si>
-  <si>
-    <t>Jan Brzezek</t>
-  </si>
-  <si>
-    <t>Stijn Vander Straeten</t>
-  </si>
-  <si>
     <t>Custodigit AG</t>
   </si>
   <si>
-    <t>Partnership between Sygnum and Swisscom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switzerland </t>
   </si>
   <si>
-    <t xml:space="preserve">Custodigit AG
-Müllerstrasse 16
+    <t xml:space="preserve">Müllerstrasse 16
 8004 Zürich
 Switzerland
 PHONE
@@ -270,22 +256,26 @@
     <t>Peter Hoffman</t>
   </si>
   <si>
+    <t>Partnership between Sygnum and Swisscom</t>
+  </si>
+  <si>
     <t>Shift Crypto AG</t>
   </si>
   <si>
+    <t>Soodmattenstr. 4
+8134 Adliswil</t>
+  </si>
+  <si>
+    <t>Douglas Bakkum, Ph.D.</t>
+  </si>
+  <si>
+    <t>ETH Zurich spin-off</t>
+  </si>
+  <si>
     <t>Digital BitBox</t>
   </si>
   <si>
     <t>Hardware wallet</t>
-  </si>
-  <si>
-    <t>Zurich</t>
-  </si>
-  <si>
-    <t>Douglas Bakkum, Ph.D.</t>
-  </si>
-  <si>
-    <t>Privately held</t>
   </si>
   <si>
     <t>Maerki Baumann &amp; Co. AG</t>
@@ -295,31 +285,31 @@
 CH‑8002 Zurich</t>
   </si>
   <si>
+    <t>BTC, BCH, ETH, LTC, XRP, ERC20</t>
+  </si>
+  <si>
     <t>METACO</t>
   </si>
   <si>
+    <t xml:space="preserve">Adrien Treccani </t>
+  </si>
+  <si>
     <t>Silo</t>
   </si>
   <si>
     <t>Hardware/ Custom Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">Adrien Treccani </t>
-  </si>
-  <si>
     <t>Banque Pictet &amp; Cie SA</t>
   </si>
   <si>
     <t>SEBA Bank AG</t>
   </si>
   <si>
-    <t>Metaco</t>
+    <t>Metaco &amp; Taurus (for hot storage)</t>
   </si>
   <si>
     <t>Yes, plus 'deep cold'</t>
-  </si>
-  <si>
-    <t>Personal Computer/Phone</t>
   </si>
   <si>
     <t>Freier Platz 10, 8200 Schaffhausen
@@ -331,47 +321,49 @@
 Zvika Landau</t>
   </si>
   <si>
+    <t>Finney (smartphone), Sirin (OS), SRN (utility token)</t>
+  </si>
+  <si>
+    <t>Cold Storage Wallet</t>
+  </si>
+  <si>
     <t>Swiss Crypto Vault AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Service </t>
   </si>
   <si>
     <t>Grafenauweg 12
 CH – 6300 Zug</t>
   </si>
   <si>
-    <t>Highly customizable setup with proven multi-signing processes, user-defined time delays and whitelisted withdrawal addresses
+    <t>JV Bitcoin Suisse AG &amp; Swiss Gold Safe</t>
+  </si>
+  <si>
+    <t>"Highly customizable setup with proven multi-signing processes, user-defined time delays and whitelisted withdrawal addresses
 Redundant infrastructure based on Hardware Security Module (HSM) and highest physical security standards
 Audited with ISAE 3402 reports and penetration tested by best-in-class external parties including PwC, Zühlke Engineering and Compass Security
 Supported blockchains and coins include BTC, ETH, all ERC20/223, BSV, BCH, XRP, LTC, BTG, TRON, EWT and XTZ (including delegation), representing over 90% of the total crypto asset market.
-Trusted with over CHF 1bn in crypto assets</t>
-  </si>
-  <si>
-    <t>The Swiss Crypto Vault is available as a service via Bitcoin Suisse AG or as white-label technology from Swiss Crypto Vault AG.</t>
+Trusted with over CHF 1bn in crypto assets"</t>
   </si>
   <si>
     <t>Safe Cloud Storage Management for your Identity Wallets with 2 possible approaches: custodial or non-custodial.</t>
   </si>
   <si>
     <t>Swissquote Bank SA</t>
+  </si>
+  <si>
+    <t>Are they a global custodian? The sub-custodian is Coinbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swissquote Group Holding SA </t>
   </si>
   <si>
     <t xml:space="preserve">Crypto Storage AG
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Swissquote Group Holding SA </t>
-  </si>
-  <si>
-    <t>Are they a global custodian? The sub-custodian is Coinbase</t>
-  </si>
-  <si>
     <t xml:space="preserve">XBT, ETH, LTC, XRP, BCH, LINK, ETC, EOS, XLM, XTZ, REP, ZRX </t>
   </si>
   <si>
-    <t>No Custody Fees
-The minimum buy/sell amount for Cryptocurrencies is equivalent to EUR/USD 25.</t>
+    <t>The minimum buy/sell amount for Cryptocurrencies is equivalent to EUR/USD 25.</t>
   </si>
   <si>
     <t xml:space="preserve">Bitstamp Limited for Ethereum, Litecoin, Ripple and Bitcoin Cash.
@@ -391,11 +383,13 @@
     <t>Simon Wälchli - Head Accounts &amp; Custody</t>
   </si>
   <si>
-    <t>Taurus</t>
-  </si>
-  <si>
-    <t>Taurus Group SA
-11 rue d’Italie
+    <t>Metaco</t>
+  </si>
+  <si>
+    <t>Taurus Group AG</t>
+  </si>
+  <si>
+    <t>11 rue d’Italie
 1204 Geneva
 Switzerland</t>
   </si>
@@ -406,6 +400,12 @@
 Dr. Jean-Philippe Aumasson</t>
   </si>
   <si>
+    <t>FIPS 140-2 level 3 certified</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Sales x 2</t>
   </si>
   <si>
@@ -418,7 +418,7 @@
     <t>Falcon Bank</t>
   </si>
   <si>
-    <t>Falcon is in advanced negotiations for transfer of client relationships to other Swiss Private Bank and to exit private banking activities in 2021.</t>
+    <t>Bank *(Falcon is in advanced negotiations for transfer of client relationships to other Swiss Private Bank and to exit private banking activities in 2021)</t>
   </si>
   <si>
     <t>Pelikanstrasse 37
@@ -431,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -439,11 +439,11 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -459,18 +459,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -499,20 +504,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -524,31 +529,34 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -571,7 +579,7 @@
     <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -599,7 +607,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -624,10 +632,10 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -655,7 +663,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -683,7 +691,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -711,7 +719,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -739,7 +747,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image18.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -764,10 +772,10 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -795,7 +803,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image16.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -823,7 +831,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -851,7 +859,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -879,7 +887,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -907,7 +915,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.jpg"/>
+        <xdr:cNvPr id="0" name="image14.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -935,7 +943,7 @@
     <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPr id="0" name="image13.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -963,7 +971,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -991,7 +999,7 @@
     <xdr:ext cx="219075" cy="219075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="0" name="image9.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1019,7 +1027,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1047,7 +1055,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.jpg"/>
+        <xdr:cNvPr id="0" name="image12.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1075,7 +1083,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1103,7 +1111,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.jpg"/>
+        <xdr:cNvPr id="0" name="image11.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1131,7 +1139,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1159,7 +1167,7 @@
     <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1392,9 +1400,12 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
     <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="5" width="16.29"/>
-    <col customWidth="1" min="6" max="12" width="20.14"/>
-    <col customWidth="1" min="22" max="22" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="6" width="20.14"/>
+    <col customWidth="1" min="10" max="11" width="20.14"/>
+    <col customWidth="1" min="12" max="13" width="16.29"/>
+    <col customWidth="1" min="14" max="15" width="20.14"/>
+    <col customWidth="1" min="19" max="19" width="23.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1416,13 +1427,13 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1431,22 +1442,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1485,13 +1496,13 @@
       <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
@@ -1500,7 +1511,7 @@
       <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="6" t="s">
@@ -1520,351 +1531,383 @@
         <v>37</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
         <v>2010.0</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>2019.0</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6">
-        <v>2019.0</v>
-      </c>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="13">
+        <v>2013.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2018.0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="10">
-        <v>2013.0</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="AD4" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="13">
+        <v>1890.0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2020.0</v>
+      </c>
+      <c r="G5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="AC5" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>2015.0</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="J6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8">
-        <v>2015.0</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="U6" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13">
+        <v>2017.0</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>45</v>
+      <c r="O7" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="P7" s="9"/>
-      <c r="Q7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13">
+        <v>2015.0</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="H9" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>84</v>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>86</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="13">
+        <v>2014.0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2018.0</v>
+      </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="9"/>
+      <c r="L11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="14">
+        <v>1805.0</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="AC12" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="U13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="6" t="s">
+      <c r="AC13" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1873,69 +1916,73 @@
         <f>HYPERLINK("https://sirinlabs.com/","Sirin Labs")</f>
         <v>Sirin Labs</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="13">
+        <v>2013.0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2018.0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13">
+        <v>2017.0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2018.0</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <v>2017.0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1944,178 +1991,223 @@
         <f>HYPERLINK("https://blockchain.swisscom.com/","Swisscom Blockchain AG")</f>
         <v>Swisscom Blockchain AG</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="13">
+        <v>1998.0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2017.0</v>
+      </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="10">
-        <v>2017.0</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="O16" s="8"/>
       <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2019.0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="S17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="6" t="s">
+      <c r="AC17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="V17" s="6" t="s">
+      <c r="AH17" s="14"/>
+      <c r="AK17" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>45</v>
+        <v>107</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="N18" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
-        <v>112</v>
+      <c r="Q19" s="6"/>
+      <c r="AC19" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="T20" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="G22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="AC22" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="AC23" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2143,10 +2235,10 @@
     <brk id="23" man="1"/>
   </rowBreaks>
   <colBreaks count="4" manualBreakCount="4">
-    <brk id="19" man="1"/>
-    <brk id="10" man="1"/>
+    <brk id="17" man="1"/>
+    <brk id="25" man="1"/>
     <brk id="43" man="1"/>
-    <brk id="28" man="1"/>
+    <brk id="15" man="1"/>
   </colBreaks>
   <drawing r:id="rId16"/>
 </worksheet>

--- a/List of Swiss Digital Custodians.xlsx
+++ b/List of Swiss Digital Custodians.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
   <si>
     <t>Logo</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Banking license (FINMA)</t>
+    <t>FINMA regulated bank or Securities Firm or Non-regulated custodian</t>
   </si>
   <si>
     <t>Company Established</t>
@@ -40,6 +40,9 @@
     <t>Business Head</t>
   </si>
   <si>
+    <t>Funding</t>
+  </si>
+  <si>
     <t>Parent Company</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Product name</t>
   </si>
   <si>
+    <t>Operator of DAC solution / Infrastructure Provider / Both</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -58,6 +64,12 @@
     <t>Audited (ISAE 3000, ISAE 3402, SOC 2</t>
   </si>
   <si>
+    <t>Common Criteria</t>
+  </si>
+  <si>
+    <t>FIPS 140-2</t>
+  </si>
+  <si>
     <t>Whitelabel solution available</t>
   </si>
   <si>
@@ -122,10 +134,16 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Papers GmbH</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland
 </t>
+  </si>
+  <si>
+    <t>Software Company</t>
   </si>
   <si>
     <t>Papers AG
@@ -134,7 +152,7 @@
 Switzerland</t>
   </si>
   <si>
-    <t>Papers</t>
+    <t>Alessandro De Carli</t>
   </si>
   <si>
     <t>AirGap Vault, AirGap Wallet, AirGap Knox</t>
@@ -161,6 +179,9 @@
 Fax: +41 (22) 715 1311</t>
   </si>
   <si>
+    <t>Operator</t>
+  </si>
+  <si>
     <t>Taurus Group</t>
   </si>
   <si>
@@ -171,6 +192,18 @@
   </si>
   <si>
     <t>by esisuisse up to CHF 100,000</t>
+  </si>
+  <si>
+    <t>Avaloq</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Metaco Silo</t>
+  </si>
+  <si>
+    <t>Avaloq group is an international fintech company that digitizes the automation of financial services industry.</t>
   </si>
   <si>
     <t>Bitcoin Suisse AG</t>
@@ -207,18 +240,15 @@
     <t>SEBA</t>
   </si>
   <si>
-    <t>BRD</t>
-  </si>
-  <si>
-    <t>Breadwinner AG
-Schindellegistrasse 3
-8808 Pfäffikon SZ
-Switzerland</t>
+    <t>Breadwinner AG (aka. BRD)</t>
   </si>
   <si>
     <t>Breadwallet</t>
   </si>
   <si>
+    <t>Non-Custodial</t>
+  </si>
+  <si>
     <t>Non-Custodial Mobile Wallet</t>
   </si>
   <si>
@@ -228,13 +258,25 @@
     <t>Crypto Finance AG</t>
   </si>
   <si>
+    <t>FinTech</t>
+  </si>
+  <si>
     <t>Jan Brzezek</t>
   </si>
   <si>
     <t>Stijn Vander Straeten</t>
   </si>
   <si>
+    <t>Crypto Storage AG</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
     <t>ISAE 3000, SOC 2</t>
+  </si>
+  <si>
+    <t>Crypto Finance AG provides professional investors blockchain financial services in crypto asset management, brokerage and storage solutions.</t>
   </si>
   <si>
     <t>Custodigit AG</t>
@@ -259,7 +301,94 @@
     <t>Partnership between Sygnum and Swisscom</t>
   </si>
   <si>
-    <t>Shift Crypto AG</t>
+    <t>Dukascopy Bank SA</t>
+  </si>
+  <si>
+    <t>Crypto currencies converted to USD on Swiss Crypto Exchange (SCX) and held as USD.</t>
+  </si>
+  <si>
+    <t>Max 50000</t>
+  </si>
+  <si>
+    <t>ID Quantique SA</t>
+  </si>
+  <si>
+    <t>IT &amp; Services</t>
+  </si>
+  <si>
+    <t>Chemin de la Marbrerie 3
+1227 Carouge - Genève
+Switzerland
+T +41 22 301 83 71
+F +41 22 301 83 79
+info@idquantique.com</t>
+  </si>
+  <si>
+    <t>Grégoire Ribordy</t>
+  </si>
+  <si>
+    <t>SK Telecom</t>
+  </si>
+  <si>
+    <t>The global leader in Quantum-Safe Security &amp; Quantum Sensing</t>
+  </si>
+  <si>
+    <t>Maerki Baumann &amp; Co. AG</t>
+  </si>
+  <si>
+    <t>Dreikönigstrasse 6
+CH‑8002 Zurich</t>
+  </si>
+  <si>
+    <t>BTC, BCH, ETH, LTC, XRP, ERC20</t>
+  </si>
+  <si>
+    <t>METACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrien Treccani </t>
+  </si>
+  <si>
+    <t>Silo</t>
+  </si>
+  <si>
+    <t>Hardware/ Custom Solutions</t>
+  </si>
+  <si>
+    <t>10% owned by Avaloq</t>
+  </si>
+  <si>
+    <t>Mt Pelerin Group SA</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Arnaud Salomon</t>
+  </si>
+  <si>
+    <t>Bridge Wallet</t>
+  </si>
+  <si>
+    <t>started testing its digital asset custody solution in Switzerland, according to a release The “Quantum Vault” is described as being an ultra-secure digital asset custody solution.n the blockchain.</t>
+  </si>
+  <si>
+    <t>Banque Pictet &amp; Cie SA</t>
+  </si>
+  <si>
+    <t>SEBA Bank AG</t>
+  </si>
+  <si>
+    <t>Metaco &amp; Taurus (for hot storage)</t>
+  </si>
+  <si>
+    <t>Yes, plus 'deep cold'</t>
+  </si>
+  <si>
+    <t>Shift Cryptosecurity AG</t>
+  </si>
+  <si>
+    <t>Hardware Company</t>
   </si>
   <si>
     <t>Soodmattenstr. 4
@@ -269,6 +398,9 @@
     <t>Douglas Bakkum, Ph.D.</t>
   </si>
   <si>
+    <t>Grant</t>
+  </si>
+  <si>
     <t>ETH Zurich spin-off</t>
   </si>
   <si>
@@ -278,38 +410,10 @@
     <t>Hardware wallet</t>
   </si>
   <si>
-    <t>Maerki Baumann &amp; Co. AG</t>
-  </si>
-  <si>
-    <t>Dreikönigstrasse 6
-CH‑8002 Zurich</t>
-  </si>
-  <si>
-    <t>BTC, BCH, ETH, LTC, XRP, ERC20</t>
-  </si>
-  <si>
-    <t>METACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrien Treccani </t>
-  </si>
-  <si>
-    <t>Silo</t>
-  </si>
-  <si>
-    <t>Hardware/ Custom Solutions</t>
-  </si>
-  <si>
-    <t>Banque Pictet &amp; Cie SA</t>
-  </si>
-  <si>
-    <t>SEBA Bank AG</t>
-  </si>
-  <si>
-    <t>Metaco &amp; Taurus (for hot storage)</t>
-  </si>
-  <si>
-    <t>Yes, plus 'deep cold'</t>
+    <t>Founded in 2015 in Zürich, Switzerland, Shift Cryptosecurity designs and manufactures the BitBox, the world’s most secure, cryptographically protected hardware wallet.</t>
+  </si>
+  <si>
+    <t>Smartphone manufacturer</t>
   </si>
   <si>
     <t>Freier Platz 10, 8200 Schaffhausen
@@ -319,6 +423,9 @@
   <si>
     <t>Moshe Hogeg
 Zvika Landau</t>
+  </si>
+  <si>
+    <t>ICO</t>
   </si>
   <si>
     <t>Finney (smartphone), Sirin (OS), SRN (utility token)</t>
@@ -344,19 +451,51 @@
 Trusted with over CHF 1bn in crypto assets"</t>
   </si>
   <si>
+    <t>Swiss Crypto Exchange (SCX)</t>
+  </si>
+  <si>
+    <t>Securities Exchange</t>
+  </si>
+  <si>
+    <t>Blockworks AG 
+Splügenstrasse 6 
+8002 Zurich</t>
+  </si>
+  <si>
+    <t>Dr. Francesco Adiliberti, CEO</t>
+  </si>
+  <si>
+    <t>Custody Wallet</t>
+  </si>
+  <si>
+    <t>Crypto converted to USD and held at Dukascopy Bank</t>
+  </si>
+  <si>
+    <t>BTC, ETH, DUK+</t>
+  </si>
+  <si>
+    <t>Müllerstrasse 16
+8004 Zürich
+Switzerland</t>
+  </si>
+  <si>
+    <t>Lukas Hohl</t>
+  </si>
+  <si>
+    <t>SSIGate</t>
+  </si>
+  <si>
     <t>Safe Cloud Storage Management for your Identity Wallets with 2 possible approaches: custodial or non-custodial.</t>
   </si>
   <si>
     <t>Swissquote Bank SA</t>
   </si>
   <si>
-    <t>Are they a global custodian? The sub-custodian is Coinbase</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swissquote Group Holding SA </t>
   </si>
   <si>
     <t xml:space="preserve">Crypto Storage AG
+Coinbase 
 </t>
   </si>
   <si>
@@ -381,9 +520,6 @@
   </si>
   <si>
     <t>Simon Wälchli - Head Accounts &amp; Custody</t>
-  </si>
-  <si>
-    <t>Metaco</t>
   </si>
   <si>
     <t>Taurus Group AG</t>
@@ -410,6 +546,9 @@
   </si>
   <si>
     <t>Temenos</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
   <si>
     <t>Bank Vontobel AG</t>
@@ -431,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -443,14 +582,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
-      <color theme="1"/>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -477,11 +614,6 @@
     </font>
     <font/>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -504,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -514,50 +646,47 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +708,7 @@
     <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image11.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -607,7 +736,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -635,7 +764,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image26.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -660,10 +789,10 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image10.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -691,7 +820,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -719,7 +848,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -744,10 +873,10 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="209550" cy="209550"/>
+    <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.jpg"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -772,10 +901,10 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="190500"/>
+    <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -800,10 +929,10 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -831,7 +960,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -859,7 +988,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image7.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -887,7 +1016,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -915,7 +1044,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -940,10 +1069,10 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="190500"/>
+    <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -971,7 +1100,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -996,10 +1125,10 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="219075" cy="219075"/>
+    <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1027,7 +1156,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image13.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1052,10 +1181,10 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="190500" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg"/>
+        <xdr:cNvPr id="0" name="image14.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1083,7 +1212,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image8.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1111,7 +1240,7 @@
     <xdr:ext cx="209550" cy="209550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1136,10 +1265,10 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="219075" cy="219075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image15.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1164,14 +1293,154 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="190500"/>
+    <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image25.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="209550" cy="209550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="209550" cy="209550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image19.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190500" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1398,14 +1667,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="7.0"/>
     <col customWidth="1" min="2" max="2" width="25.71"/>
     <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="6" width="20.14"/>
-    <col customWidth="1" min="10" max="11" width="20.14"/>
-    <col customWidth="1" min="12" max="13" width="16.29"/>
-    <col customWidth="1" min="14" max="15" width="20.14"/>
-    <col customWidth="1" min="19" max="19" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="16.71"/>
+    <col customWidth="1" min="6" max="6" width="20.14"/>
+    <col customWidth="1" min="10" max="12" width="20.14"/>
+    <col customWidth="1" min="13" max="15" width="16.29"/>
+    <col customWidth="1" min="16" max="17" width="20.14"/>
+    <col customWidth="1" min="23" max="23" width="23.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1421,19 +1691,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1460,786 +1730,1195 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="str">
-        <f>HYPERLINK("http://airgap.it/","AirGap")</f>
-        <v>AirGap</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2009.0</v>
+      </c>
+      <c r="F2" s="7">
         <v>2010.0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1962.0</v>
+      </c>
+      <c r="F3" s="4">
         <v>2019.0</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>48</v>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1985.0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2018.0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AO4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2013.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2018.0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2013.0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E6" s="7">
+        <v>1890.0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="AG6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>2017.0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="AO8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>2018.0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6" t="s">
+      <c r="G9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2004.0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="AG10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2001.0</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AO11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="6" t="s">
+      <c r="O12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1890.0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2020.0</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="AC5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>2015.0</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="J6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="13">
-        <v>2017.0</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="13">
-        <v>2015.0</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="S10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13">
-        <v>2014.0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2018.0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1805.0</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="AC12" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2014.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2018.0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="AO13" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2018.0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2019.0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AO14" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1805.0</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AG15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4">
         <v>2017.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F16" s="4">
         <v>2018.0</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="U13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC13" s="6" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="Y16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="D17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2015.0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="AO17" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="str">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="str">
         <f>HYPERLINK("https://sirinlabs.com/","Sirin Labs")</f>
         <v>Sirin Labs</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13">
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="7">
         <v>2013.0</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F18" s="7">
         <v>2018.0</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="G18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13">
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>2017.0</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F19" s="7">
         <v>2018.0</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>98</v>
+      <c r="G19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="str">
+    <row r="20" ht="16.5" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2017.0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="W20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="str">
         <f>HYPERLINK("https://blockchain.swisscom.com/","Swisscom Blockchain AG")</f>
         <v>Swisscom Blockchain AG</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7">
+        <v>1998.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2017.0</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2000.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2019.0</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="W22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AO22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="N23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2018.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="AG24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13">
-        <v>1998.0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2017.0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="D25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2018.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2000.0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2019.0</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="S17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC17" s="6" t="s">
+    <row r="26" ht="16.5" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH17" s="14"/>
-      <c r="AK17" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="D26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1993.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2018.0</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="N26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="N18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1936.0</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="N27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="AG27" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="AC19" s="6" t="s">
+    <row r="28" ht="15.0" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2018.0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>2019.0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="T20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="AC22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="AC23" s="6" t="s">
-        <v>48</v>
+      <c r="D28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="AG28" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B6"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B7"/>
     <hyperlink r:id="rId4" ref="B8"/>
     <hyperlink r:id="rId5" ref="B9"/>
     <hyperlink r:id="rId6" ref="B10"/>
     <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B13"/>
-    <hyperlink r:id="rId9" ref="B15"/>
-    <hyperlink r:id="rId10" ref="B17"/>
-    <hyperlink r:id="rId11" ref="B18"/>
-    <hyperlink r:id="rId12" ref="B19"/>
-    <hyperlink r:id="rId13" ref="B20"/>
-    <hyperlink r:id="rId14" ref="B22"/>
-    <hyperlink r:id="rId15" ref="B23"/>
+    <hyperlink r:id="rId8" ref="B12"/>
+    <hyperlink r:id="rId9" ref="B13"/>
+    <hyperlink r:id="rId10" ref="B14"/>
+    <hyperlink r:id="rId11" ref="B16"/>
+    <hyperlink r:id="rId12" ref="B17"/>
+    <hyperlink r:id="rId13" ref="B19"/>
+    <hyperlink r:id="rId14" ref="B20"/>
+    <hyperlink r:id="rId15" ref="B22"/>
+    <hyperlink r:id="rId16" ref="B23"/>
+    <hyperlink r:id="rId17" ref="B24"/>
+    <hyperlink r:id="rId18" ref="B25"/>
+    <hyperlink r:id="rId19" ref="B27"/>
+    <hyperlink r:id="rId20" ref="B28"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="5" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="23" man="1"/>
+    <brk id="28" man="1"/>
   </rowBreaks>
   <colBreaks count="4" manualBreakCount="4">
-    <brk id="17" man="1"/>
-    <brk id="25" man="1"/>
-    <brk id="43" man="1"/>
-    <brk id="15" man="1"/>
+    <brk id="19" man="1"/>
+    <brk id="21" man="1"/>
+    <brk id="29" man="1"/>
+    <brk id="47" man="1"/>
   </colBreaks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>